--- a/data/2/20230603-a1r-yc-session2-l_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-l_transcript.xlsx
@@ -1,408 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27590173-EA94-6A44-B7F3-F15902DB2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:52"</t>
-  </si>
-  <si>
-    <t>Hey everybody. I don't know if you all had problems, we didn't get our introductions. I'm Jeff. I live in Upstate New York and I think that proposal is ridiculous. I don't even understand, I don't understand the purpose of it. Maybe someone can explain it to me.</t>
-  </si>
-  <si>
-    <t>"18:11"</t>
-  </si>
-  <si>
-    <t>No I agree. I also had problems getting on I just now popped up. I'm Danny. I'm in Colorado, just outside of Denver and I agree with you that it doesn't make any sense to give anybody any more power. It's supposed to be we the people right, knotweed? Those other guys,</t>
-  </si>
-  <si>
-    <t>"18:30"</t>
-  </si>
-  <si>
-    <t>Hi, this band to you. I'm from New Jersey. Yeah I agree. It's not a fair proposal.</t>
-  </si>
-  <si>
-    <t>"18:43"</t>
-  </si>
-  <si>
-    <t>So I'm Stuart, I'm in Utah have been for about 30 years and yeah, I I can't argue with you guys. I would like to hear more as to why or what that what the possible Pros are. Because I'm not quite sure I understand the benefits.</t>
-  </si>
-  <si>
-    <t>"19:16"</t>
-  </si>
-  <si>
-    <t>Sounds like this was proposed by the party leaders to benefit them. That's I think those are the benefits.</t>
-  </si>
-  <si>
-    <t>"19:25"</t>
-  </si>
-  <si>
-    <t>Yep, the pros that they mention, I mean, they kind of make sense on paper that these people would be more educated about things but still it's too much power. The candidate should be spending more time about educating us. So we can decide instead of these super</t>
-  </si>
-  <si>
-    <t>"20:50"</t>
-  </si>
-  <si>
-    <t>What seems to me that the original purpose of the Electoral College was to protect well as a compromise to help to protect, I guess, smaller States from being irrelevant. I don't know if that is</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Changed through the years, but it seems like that that is one concern and one benefit. I guess other electrical Electoral College, it forces the smaller States. I don't mean small geographically, that smaller population wise to still be represented to some degree. But I also hear these rumors of rogue.</t>
-  </si>
-  <si>
-    <t>"21:38"</t>
-  </si>
-  <si>
-    <t>I might be sick, but I never understood the purpose. I understand what it is. The Electoral College. I never understood the purpose. You know, who the people should elect the president directly and the candidate who gets the most votes should win.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, Rogue electors. That's that's a little crazy thing because they don't, I don't believe they're required to by the Constitution or by law to vote with their supposed to vote for.</t>
-  </si>
-  <si>
-    <t>"22:18"</t>
-  </si>
-  <si>
-    <t>Yeah, again, I agree and yes, a one problem is the faithless exact electors some states require that they vote with the with the popular vote but some do not. I think what happened is this electoral college is? It's just outdated concept. You know, when this was born we didn't have internet. It took a while to get all this information together. So you couldn't possibly have everybody vote and count everybody's votes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So you know, if you got a vote and send a guy on a horse back over to the college, you know if it's a physical thing you know that makes sense but we're beyond that now. We're able to get everybody's vote and have everybody count.</t>
-  </si>
-  <si>
-    <t>"24:15"</t>
-  </si>
-  <si>
-    <t>Am I I don't know if I understand that correctly. It seems like what then why have the Electoral College just have the direct popular vote? Because isn't that what that seems like if the states have to give the electors to whoever wins the popular vote, then let's just eliminate the electors altogether, just go directly to the popular vote.</t>
-  </si>
-  <si>
-    <t>"24:39"</t>
-  </si>
-  <si>
-    <t>I had the same thought, I don't understand why keep the Electoral College if we go pop.</t>
-  </si>
-  <si>
-    <t>"24:46"</t>
-  </si>
-  <si>
-    <t>I think what it might be is an end run around the Electoral College because maybe it's baked into the Constitution somewhere. Sorry, I just don't know where it's required. So it just seems like this is a bypass tool so we can get that popular vote but not be unconstitutional about it. That's what I suspect is going.</t>
-  </si>
-  <si>
-    <t>"25:08"</t>
-  </si>
-  <si>
-    <t>Yeah, I think that sounds right. I think you're right.</t>
-  </si>
-  <si>
-    <t>"25:27"</t>
-  </si>
-  <si>
-    <t>Seems like there's not a lot to discuss. Everybody seems to be on the same page.</t>
-  </si>
-  <si>
-    <t>"26:41"</t>
-  </si>
-  <si>
-    <t>Well, I never liked this lifetime, appointment saying it just doesn't seem right to me.</t>
-  </si>
-  <si>
-    <t>That just had a know that whatever mistakes they make whatever problems they have. They just get to continue until they die or leave. So, the 18-year thing, sounds good to me. Also, the third thing about the ethical standards, why? I don't know that, why wouldn't they have to have the same ethical standards as federal judges?</t>
-  </si>
-  <si>
-    <t>"27:18"</t>
-  </si>
-  <si>
-    <t>I've never heard about there being a difference in the ethical standards between the Supreme Court and federal judges. So I'm really curious, I like to learn more about that. That's a great question. Maybe somebody out of pain that one for or type that one in when we have our list of questions. Secondly, as far as the nine justices, somebody correct me if I'm wrong I'm trying to recall. Isn't isn't the concern there of? You know we can suddenly change it and allow any number of Judges. We</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And the president can suddenly appoint, six, seven, more judges to, you know, get sort of the political flavor that he or she wants at the given time or are some concern like that? Is that what's going on?</t>
-  </si>
-  <si>
-    <t>"28:00"</t>
-  </si>
-  <si>
-    <t>I think that is the case, I don't remember, but I think the president can do it and so it would be it'd be really bad. You know, if the last president said I'm going to point to more so I can get a majority and then the next president, says, okay. Well, now I need to add six more in order to sway the other way and then all of a sudden we have 30 justices. So yeah, that could be tricky and I agree on the standards thing. I didn't know there was a difference but of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Course they should be. They should have two, some, some ethical standards. Certainly a good level of them.</t>
-  </si>
-  <si>
-    <t>"28:39"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that, both points and specially with the 18 year term, because lifetime term is basically things change. And it's good to have new opinions and as life in America changes as well.</t>
-  </si>
-  <si>
-    <t>"29:02"</t>
-  </si>
-  <si>
-    <t>Yeah, that lifetime thing is. It depends on whether you like the person who's going to be there for life or not and you know whichever side you're on. There's somebody like in there somebody you don't somebody like to be there forever and somebody you'd like out now so it's tough.</t>
-  </si>
-  <si>
-    <t>"30:17"</t>
-  </si>
-  <si>
-    <t>I think this all sounds good. I mean, we don't want to end up in some of the literature was talking about cons about spending on more important things first. So, yeah, I mean, I think we have to be balanced with the spending, but I think it's important. I do, I probably the oldest guy here. We had. We used to have Civics. I don't know if they teach that anymore and I don't remember what that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That even was Civics. I don't know if we talked to my, I really don't remember, but I think it's important. So yeah.</t>
-  </si>
-  <si>
-    <t>"30:59"</t>
-  </si>
-  <si>
-    <t>In the school district. I attended they did have a citizen's course that was required. I don't remember. It was taking the either the sophomore to junior year in high school typically and when it came to my time to take it, they had just removed it as a requirement. So I didn't take it and I I regretted that sense because it took a lot more self-study. I know my brother and sister who took it, we're introduced to the Constitution and it's amendments to how</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How government works that sort of thing? I wasn't I had to research it myself later but you know, I did it. But not everybody gets that education. Think it should be required.</t>
-  </si>
-  <si>
-    <t>"31:38"</t>
-  </si>
-  <si>
-    <t>Yeah, there should be a requirement to have at least some I think a lot of us, you know, the younger ones. Even I think we might have learned more about the Constitution from that cartoon, with that walking animated Constitution. If you remember that guy on the, on the steps Schoolhouse Rock or whatever it was,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah exactly. How bills born and all that. And as for that other point about from the other deliberative stuff you know Theory it sounds good. But then it depends on who's moderating it, you know, if you get somebody who's not in the middle they're going to be you know, they're going to lean one side or the other and they're going to have influence that they really shouldn't have.</t>
-  </si>
-  <si>
-    <t>"31:55"</t>
-  </si>
-  <si>
-    <t>A bill. Yeah.</t>
-  </si>
-  <si>
-    <t>"32:21"</t>
-  </si>
-  <si>
-    <t>Right, there's so many variables with, with that.</t>
-  </si>
-  <si>
-    <t>"32:30"</t>
-  </si>
-  <si>
-    <t>I know that in some areas there's a lot of concerns with our education system and how it swings toward One Direction More than another as far as left-wing right-wing. And I think that's part of the concern there, who's teaching my kids, you know,</t>
-  </si>
-  <si>
-    <t>"33:01"</t>
-  </si>
-  <si>
-    <t>Yeah, I do think there needs to be some more education, though. I don't think I get the sense that nobody was really interested in how anything worked in government up until what was it 2016. And then people all of a sudden, everybody was interested. But before that, nobody knew anything about anything. I'm guilty of that one.</t>
-  </si>
-  <si>
-    <t>"35:12"</t>
-  </si>
-  <si>
-    <t>Somebody drafting that question about the, the ethics.</t>
-  </si>
-  <si>
-    <t>"35:20"</t>
-  </si>
-  <si>
-    <t>Yeah, I just I just put it in, will get a discuss in a bit.</t>
-  </si>
-  <si>
-    <t>"35:50"</t>
-  </si>
-  <si>
-    <t>That. Yeah, that's really the. Only question I have Stewart's question. I can't think of anything else.</t>
-  </si>
-  <si>
-    <t>"36:00"</t>
-  </si>
-  <si>
-    <t>Well, think of something else because otherwise they'll call on me to ask it.</t>
-  </si>
-  <si>
-    <t>"36:05"</t>
-  </si>
-  <si>
-    <t>"36:24"</t>
-  </si>
-  <si>
-    <t>I did that one about the why doing the compact?</t>
-  </si>
-  <si>
-    <t>"36:32"</t>
-  </si>
-  <si>
-    <t>That's a, that's a great question.</t>
-  </si>
-  <si>
-    <t>"36:35"</t>
-  </si>
-  <si>
-    <t>Yeah, I like that. That's good. They're both great.</t>
-  </si>
-  <si>
-    <t>"36:48"</t>
-  </si>
-  <si>
-    <t>But also, as we saw in the last expert panel, the odds of getting a question asked are slim. There's a lot of people asking a lot of questions. I don't know. I think maybe they got</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maybe five or six questions in the last thing.</t>
-  </si>
-  <si>
-    <t>"37:07"</t>
-  </si>
-  <si>
-    <t>So what group are we? It says I don't see anything that says we're group and or Q or</t>
-  </si>
-  <si>
-    <t>"37:14"</t>
-  </si>
-  <si>
-    <t>I know I was trying to figure that out the last time.</t>
-  </si>
-  <si>
-    <t>"37:55"</t>
-  </si>
-  <si>
-    <t>Any proposed changes.</t>
-  </si>
-  <si>
-    <t>"37:59"</t>
-  </si>
-  <si>
-    <t>Looks good to me.</t>
-  </si>
-  <si>
-    <t>"38:02"</t>
-  </si>
-  <si>
-    <t>Yes, it looks good.</t>
-  </si>
-  <si>
-    <t>"38:08"</t>
-  </si>
-  <si>
-    <t>Looks good and we're group and email. It says will go down.</t>
-  </si>
-  <si>
-    <t>"38:37"</t>
-  </si>
-  <si>
-    <t>That one looks good, too.</t>
-  </si>
-  <si>
-    <t>"39:09"</t>
-  </si>
-  <si>
-    <t>Boy, these sessions are moving a lot quicker than last time.</t>
-  </si>
-  <si>
-    <t>"39:18"</t>
-  </si>
-  <si>
-    <t>Yeah, I don't know if we need more discussion or we just don't have a diverse enough group. I'm</t>
-  </si>
-  <si>
-    <t>"39:28"</t>
-  </si>
-  <si>
-    <t>Maybe these questions are pretty self-evident.</t>
-  </si>
-  <si>
-    <t>"39:58"</t>
-  </si>
-  <si>
-    <t>What remaining questions?</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -478,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -584,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1666,739 +1293,888 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:52"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Hey everybody. I don't know if you all had problems, we didn't get our introductions. I'm Jeff. I live in Upstate New York and I think that proposal is ridiculous. I don't even understand, I don't understand the purpose of it. Maybe someone can explain it to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"18:11"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>No I agree. I also had problems getting on I just now popped up. I'm Danny. I'm in Colorado, just outside of Denver and I agree with you that it doesn't make any sense to give anybody any more power. It's supposed to be we the people right, knotweed? Those other guys,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48430</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"18:30"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Hi, this band to you. I'm from New Jersey. Yeah I agree. It's not a fair proposal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:43"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>So I'm Stuart, I'm in Utah have been for about 30 years and yeah, I I can't argue with you guys. I would like to hear more as to why or what that what the possible Pros are. Because I'm not quite sure I understand the benefits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"19:16"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Sounds like this was proposed by the party leaders to benefit them. That's I think those are the benefits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"19:25"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Yep, the pros that they mention, I mean, they kind of make sense on paper that these people would be more educated about things but still it's too much power. The candidate should be spending more time about educating us. So we can decide instead of these super</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"20:50"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>What seems to me that the original purpose of the Electoral College was to protect well as a compromise to help to protect, I guess, smaller States from being irrelevant. I don't know if that is</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"20:50"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Changed through the years, but it seems like that that is one concern and one benefit. I guess other electrical Electoral College, it forces the smaller States. I don't mean small geographically, that smaller population wise to still be represented to some degree. But I also hear these rumors of rogue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"21:38"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I might be sick, but I never understood the purpose. I understand what it is. The Electoral College. I never understood the purpose. You know, who the people should elect the president directly and the candidate who gets the most votes should win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"21:38"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah, Rogue electors. That's that's a little crazy thing because they don't, I don't believe they're required to by the Constitution or by law to vote with their supposed to vote for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"22:18"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, again, I agree and yes, a one problem is the faithless exact electors some states require that they vote with the with the popular vote but some do not. I think what happened is this electoral college is? It's just outdated concept. You know, when this was born we didn't have internet. It took a while to get all this information together. So you couldn't possibly have everybody vote and count everybody's votes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"22:18"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So you know, if you got a vote and send a guy on a horse back over to the college, you know if it's a physical thing you know that makes sense but we're beyond that now. We're able to get everybody's vote and have everybody count.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"24:15"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Am I I don't know if I understand that correctly. It seems like what then why have the Electoral College just have the direct popular vote? Because isn't that what that seems like if the states have to give the electors to whoever wins the popular vote, then let's just eliminate the electors altogether, just go directly to the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"24:39"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>I had the same thought, I don't understand why keep the Electoral College if we go pop.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"24:46"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>I think what it might be is an end run around the Electoral College because maybe it's baked into the Constitution somewhere. Sorry, I just don't know where it's required. So it just seems like this is a bypass tool so we can get that popular vote but not be unconstitutional about it. That's what I suspect is going.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"25:08"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think that sounds right. I think you're right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"25:27"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Seems like there's not a lot to discuss. Everybody seems to be on the same page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"26:41"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Well, I never liked this lifetime, appointment saying it just doesn't seem right to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"26:41"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>That just had a know that whatever mistakes they make whatever problems they have. They just get to continue until they die or leave. So, the 18-year thing, sounds good to me. Also, the third thing about the ethical standards, why? I don't know that, why wouldn't they have to have the same ethical standards as federal judges?</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"27:18"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>I've never heard about there being a difference in the ethical standards between the Supreme Court and federal judges. So I'm really curious, I like to learn more about that. That's a great question. Maybe somebody out of pain that one for or type that one in when we have our list of questions. Secondly, as far as the nine justices, somebody correct me if I'm wrong I'm trying to recall. Isn't isn't the concern there of? You know we can suddenly change it and allow any number of Judges. We</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"27:18"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And the president can suddenly appoint, six, seven, more judges to, you know, get sort of the political flavor that he or she wants at the given time or are some concern like that? Is that what's going on?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"28:00"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>I think that is the case, I don't remember, but I think the president can do it and so it would be it'd be really bad. You know, if the last president said I'm going to point to more so I can get a majority and then the next president, says, okay. Well, now I need to add six more in order to sway the other way and then all of a sudden we have 30 justices. So yeah, that could be tricky and I agree on the standards thing. I didn't know there was a difference but of</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"28:00"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Course they should be. They should have two, some, some ethical standards. Certainly a good level of them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48430</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"28:39"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that, both points and specially with the 18 year term, because lifetime term is basically things change. And it's good to have new opinions and as life in America changes as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"29:02"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, that lifetime thing is. It depends on whether you like the person who's going to be there for life or not and you know whichever side you're on. There's somebody like in there somebody you don't somebody like to be there forever and somebody you'd like out now so it's tough.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"30:17"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>I think this all sounds good. I mean, we don't want to end up in some of the literature was talking about cons about spending on more important things first. So, yeah, I mean, I think we have to be balanced with the spending, but I think it's important. I do, I probably the oldest guy here. We had. We used to have Civics. I don't know if they teach that anymore and I don't remember what that</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"30:17"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That even was Civics. I don't know if we talked to my, I really don't remember, but I think it's important. So yeah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"30:59"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>In the school district. I attended they did have a citizen's course that was required. I don't remember. It was taking the either the sophomore to junior year in high school typically and when it came to my time to take it, they had just removed it as a requirement. So I didn't take it and I I regretted that sense because it took a lot more self-study. I know my brother and sister who took it, we're introduced to the Constitution and it's amendments to how</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"30:59"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> How government works that sort of thing? I wasn't I had to research it myself later but you know, I did it. But not everybody gets that education. Think it should be required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"31:38"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, there should be a requirement to have at least some I think a lot of us, you know, the younger ones. Even I think we might have learned more about the Constitution from that cartoon, with that walking animated Constitution. If you remember that guy on the, on the steps Schoolhouse Rock or whatever it was,</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"31:38"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah exactly. How bills born and all that. And as for that other point about from the other deliberative stuff you know Theory it sounds good. But then it depends on who's moderating it, you know, if you get somebody who's not in the middle they're going to be you know, they're going to lean one side or the other and they're going to have influence that they really shouldn't have.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"31:55"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>A bill. Yeah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"32:21"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Right, there's so many variables with, with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"32:30"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>I know that in some areas there's a lot of concerns with our education system and how it swings toward One Direction More than another as far as left-wing right-wing. And I think that's part of the concern there, who's teaching my kids, you know,</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"33:01"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I do think there needs to be some more education, though. I don't think I get the sense that nobody was really interested in how anything worked in government up until what was it 2016. And then people all of a sudden, everybody was interested. But before that, nobody knew anything about anything. I'm guilty of that one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"35:12"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>Somebody drafting that question about the, the ethics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"35:20"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I just I just put it in, will get a discuss in a bit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"35:50"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>That. Yeah, that's really the. Only question I have Stewart's question. I can't think of anything else.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"36:00"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>Well, think of something else because otherwise they'll call on me to ask it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"36:05"</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="n"/>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"36:24"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>I did that one about the why doing the compact?</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"36:32"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>That's a, that's a great question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"36:35"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I like that. That's good. They're both great.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"36:48"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>But also, as we saw in the last expert panel, the odds of getting a question asked are slim. There's a lot of people asking a lot of questions. I don't know. I think maybe they got</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"36:48"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maybe five or six questions in the last thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"37:07"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>So what group are we? It says I don't see anything that says we're group and or Q or</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"37:14"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>I know I was trying to figure that out the last time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"37:55"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>Any proposed changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"37:59"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Looks good to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48430</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"38:02"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>Yes, it looks good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48534</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"38:08"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Looks good and we're group and email. It says will go down.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"38:37"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>That one looks good, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48401</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"39:09"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>Boy, these sessions are moving a lot quicker than last time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>10534</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"39:18"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I don't know if we need more discussion or we just don't have a diverse enough group. I'm</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"39:28"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>Maybe these questions are pretty self-evident.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48421</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>101</v>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"39:58"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>What remaining questions?</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C624A04-CAF8-6844-B275-BEEC14334892}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230603-a1r-yc-session2-l_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-l_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
